--- a/data/dataset_mo.xlsx
+++ b/data/dataset_mo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B38903-F3C7-49A8-A665-59B034A8E26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839CFDD-D914-4F26-B70B-5BBE3CB02FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="812">
   <si>
     <t>Common name</t>
   </si>
@@ -2550,6 +2550,54 @@
   </si>
   <si>
     <t>Sloping bank</t>
+  </si>
+  <si>
+    <t>Shrubland - Subtropical/Tropical Moist</t>
+  </si>
+  <si>
+    <t>Shrubland - Subtropical/Tropical High Altitude</t>
+  </si>
+  <si>
+    <t>Corydospiza alaudina</t>
+  </si>
+  <si>
+    <t>Band-tailed Sierra-finch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest - Subtropical/Tropical Dry </t>
+  </si>
+  <si>
+    <t>Mourning Sierra-finch</t>
+  </si>
+  <si>
+    <t>Rhopospina fruticeti</t>
+  </si>
+  <si>
+    <t>Forest - Subtropical/Tropical Moist Lowland; Forest - Subtropical/Tropical Mangrove Vegetation Above High Tide Level; Savanna - Moist</t>
+  </si>
+  <si>
+    <t>Low levels</t>
+  </si>
+  <si>
+    <t>Shrubland - Boreal</t>
+  </si>
+  <si>
+    <t>Siberian Rubythroat</t>
+  </si>
+  <si>
+    <t>Calliope calliope</t>
+  </si>
+  <si>
+    <t>Gliciphila notabilis</t>
+  </si>
+  <si>
+    <t>Vanuatu Honeyeater</t>
+  </si>
+  <si>
+    <t>Forest - Subtropical/Tropical Moist Lowland; Forest - Subtropical/Tropical Moist Montane; Shrubland - Temperate; Shrubland - Subtropical/Tropical Dry</t>
+  </si>
+  <si>
+    <t>Savanna - Dry; Shrubland - Subtropical/Tropical Dry; Grassland - Subtropical/Tropical Dry</t>
   </si>
 </sst>
 </file>
@@ -2906,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J555"/>
+  <dimension ref="A1:J559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9464,205 +9512,637 @@
       <c r="B248" t="s">
         <v>242</v>
       </c>
+      <c r="C248" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D248" t="s">
+        <v>583</v>
+      </c>
+      <c r="E248" t="s">
+        <v>570</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" t="s">
+        <v>26</v>
+      </c>
       <c r="H248" t="s">
         <v>12</v>
       </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>799</v>
+      </c>
       <c r="B249" t="s">
         <v>243</v>
       </c>
+      <c r="C249" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D249" t="s">
+        <v>583</v>
+      </c>
+      <c r="E249" t="s">
+        <v>570</v>
+      </c>
+      <c r="F249" t="s">
+        <v>11</v>
+      </c>
+      <c r="G249" t="s">
+        <v>570</v>
+      </c>
       <c r="H249" t="s">
         <v>12</v>
       </c>
+      <c r="I249" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>799</v>
+      </c>
       <c r="B250" t="s">
-        <v>244</v>
+        <v>798</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D250" t="s">
+        <v>583</v>
+      </c>
+      <c r="E250" t="s">
+        <v>570</v>
+      </c>
+      <c r="F250" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" t="s">
+        <v>570</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
+      </c>
+      <c r="I250" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D251" t="s">
+        <v>632</v>
+      </c>
+      <c r="E251" t="s">
+        <v>787</v>
+      </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" t="s">
+        <v>26</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D252" t="s">
+        <v>696</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
+      </c>
+      <c r="I252" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D253" t="s">
+        <v>696</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>26</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
+      </c>
+      <c r="I253" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
+        <v>247</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D254" t="s">
+        <v>696</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" t="s">
+        <v>26</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>801</v>
+      </c>
+      <c r="B255" t="s">
         <v>248</v>
       </c>
-      <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+      <c r="C255" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D255" t="s">
+        <v>583</v>
+      </c>
+      <c r="E255" t="s">
+        <v>570</v>
+      </c>
+      <c r="F255" t="s">
+        <v>11</v>
+      </c>
+      <c r="G255" t="s">
+        <v>587</v>
+      </c>
+      <c r="H255" t="s">
+        <v>12</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>801</v>
+      </c>
+      <c r="B256" t="s">
+        <v>802</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D256" t="s">
+        <v>583</v>
+      </c>
+      <c r="E256" t="s">
+        <v>570</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" t="s">
+        <v>587</v>
+      </c>
+      <c r="H256" t="s">
+        <v>12</v>
+      </c>
+      <c r="I256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
         <v>249</v>
       </c>
-      <c r="H255" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+      <c r="C257" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D257" t="s">
+        <v>551</v>
+      </c>
+      <c r="E257" t="s">
+        <v>753</v>
+      </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" t="s">
+        <v>26</v>
+      </c>
+      <c r="H257" t="s">
+        <v>12</v>
+      </c>
+      <c r="I257" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
         <v>250</v>
       </c>
-      <c r="H256" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+      <c r="C258" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D258" t="s">
+        <v>632</v>
+      </c>
+      <c r="E258" t="s">
+        <v>786</v>
+      </c>
+      <c r="H258" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
         <v>251</v>
       </c>
-      <c r="H257" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+      <c r="C259" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D259" t="s">
+        <v>632</v>
+      </c>
+      <c r="E259" t="s">
+        <v>804</v>
+      </c>
+      <c r="H259" t="s">
+        <v>12</v>
+      </c>
+      <c r="I259" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>252</v>
       </c>
-      <c r="H258" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+      <c r="C260" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D260" t="s">
+        <v>632</v>
+      </c>
+      <c r="E260" t="s">
+        <v>756</v>
+      </c>
+      <c r="F260" t="s">
+        <v>704</v>
+      </c>
+      <c r="H260" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
         <v>253</v>
       </c>
-      <c r="H259" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+      <c r="C261" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D261" t="s">
+        <v>632</v>
+      </c>
+      <c r="E261" t="s">
+        <v>756</v>
+      </c>
+      <c r="F261" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
         <v>254</v>
       </c>
-      <c r="H260" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+      <c r="C262" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D262" t="s">
+        <v>632</v>
+      </c>
+      <c r="E262" t="s">
+        <v>753</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" t="s">
+        <v>570</v>
+      </c>
+      <c r="H262" t="s">
+        <v>12</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>806</v>
+      </c>
+      <c r="B263" t="s">
         <v>255</v>
       </c>
-      <c r="H261" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+      <c r="C263" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D263" t="s">
+        <v>632</v>
+      </c>
+      <c r="E263" t="s">
+        <v>570</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" t="s">
+        <v>570</v>
+      </c>
+      <c r="H263" t="s">
+        <v>12</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>806</v>
+      </c>
+      <c r="B264" t="s">
+        <v>807</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D264" t="s">
+        <v>632</v>
+      </c>
+      <c r="E264" t="s">
+        <v>570</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264" t="s">
+        <v>570</v>
+      </c>
+      <c r="H264" t="s">
+        <v>12</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>809</v>
+      </c>
+      <c r="B265" t="s">
         <v>256</v>
       </c>
-      <c r="H262" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+      <c r="C265" t="s">
+        <v>671</v>
+      </c>
+      <c r="D265" t="s">
+        <v>551</v>
+      </c>
+      <c r="E265" t="s">
+        <v>768</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" t="s">
+        <v>12</v>
+      </c>
+      <c r="I265" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>809</v>
+      </c>
+      <c r="B266" t="s">
+        <v>808</v>
+      </c>
+      <c r="C266" t="s">
+        <v>671</v>
+      </c>
+      <c r="D266" t="s">
+        <v>551</v>
+      </c>
+      <c r="E266" t="s">
+        <v>768</v>
+      </c>
+      <c r="F266" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" t="s">
+        <v>12</v>
+      </c>
+      <c r="I266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
         <v>257</v>
       </c>
-      <c r="H263" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+      <c r="C267" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D267" t="s">
+        <v>632</v>
+      </c>
+      <c r="E267" t="s">
+        <v>753</v>
+      </c>
+      <c r="F267" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" t="s">
+        <v>26</v>
+      </c>
+      <c r="H267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
         <v>258</v>
       </c>
-      <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+      <c r="C268" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D268" t="s">
+        <v>632</v>
+      </c>
+      <c r="E268" t="s">
+        <v>570</v>
+      </c>
+      <c r="F268" t="s">
+        <v>704</v>
+      </c>
+      <c r="G268" t="s">
+        <v>26</v>
+      </c>
+      <c r="H268" t="s">
+        <v>12</v>
+      </c>
+      <c r="I268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>259</v>
       </c>
-      <c r="H265" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+      <c r="C269" t="s">
+        <v>811</v>
+      </c>
+      <c r="D269" t="s">
+        <v>632</v>
+      </c>
+      <c r="E269" t="s">
+        <v>756</v>
+      </c>
+      <c r="F269" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" t="s">
+        <v>12</v>
+      </c>
+      <c r="I269" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
         <v>260</v>
       </c>
-      <c r="H266" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+      <c r="C270" t="s">
+        <v>740</v>
+      </c>
+      <c r="D270" t="s">
+        <v>632</v>
+      </c>
+      <c r="E270" t="s">
+        <v>570</v>
+      </c>
+      <c r="F270" t="s">
+        <v>556</v>
+      </c>
+      <c r="G270" t="s">
+        <v>26</v>
+      </c>
+      <c r="H270" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>261</v>
       </c>
-      <c r="H267" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+      <c r="C271" t="s">
+        <v>661</v>
+      </c>
+      <c r="D271" t="s">
+        <v>632</v>
+      </c>
+      <c r="E271" t="s">
+        <v>786</v>
+      </c>
+      <c r="F271" t="s">
+        <v>556</v>
+      </c>
+      <c r="G271" t="s">
+        <v>26</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>262</v>
       </c>
-      <c r="H268" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
-        <v>263</v>
-      </c>
-      <c r="H269" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>264</v>
-      </c>
-      <c r="H270" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>265</v>
-      </c>
-      <c r="H271" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>266</v>
+      <c r="C272" t="s">
+        <v>660</v>
+      </c>
+      <c r="D272" t="s">
+        <v>632</v>
+      </c>
+      <c r="E272" t="s">
+        <v>570</v>
+      </c>
+      <c r="F272" t="s">
+        <v>556</v>
+      </c>
+      <c r="G272" t="s">
+        <v>26</v>
       </c>
       <c r="H272" t="s">
         <v>12</v>
+      </c>
+      <c r="I272" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H273" t="s">
         <v>12</v>
@@ -9670,7 +10150,7 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
@@ -9678,7 +10158,7 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H275" t="s">
         <v>12</v>
@@ -9686,7 +10166,7 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
@@ -9694,7 +10174,7 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H277" t="s">
         <v>12</v>
@@ -9702,7 +10182,7 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H278" t="s">
         <v>12</v>
@@ -9710,7 +10190,7 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H279" t="s">
         <v>12</v>
@@ -9718,7 +10198,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H280" t="s">
         <v>12</v>
@@ -9726,7 +10206,7 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H281" t="s">
         <v>12</v>
@@ -9734,7 +10214,7 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H282" t="s">
         <v>12</v>
@@ -9742,7 +10222,7 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H283" t="s">
         <v>12</v>
@@ -9750,7 +10230,7 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H284" t="s">
         <v>12</v>
@@ -9758,7 +10238,7 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H285" t="s">
         <v>12</v>
@@ -9766,7 +10246,7 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H286" t="s">
         <v>12</v>
@@ -9774,7 +10254,7 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H287" t="s">
         <v>12</v>
@@ -9782,7 +10262,7 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H288" t="s">
         <v>12</v>
@@ -9790,7 +10270,7 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H289" t="s">
         <v>12</v>
@@ -9798,7 +10278,7 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H290" t="s">
         <v>12</v>
@@ -9806,7 +10286,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H291" t="s">
         <v>12</v>
@@ -9814,7 +10294,7 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H292" t="s">
         <v>12</v>
@@ -9822,7 +10302,7 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H293" t="s">
         <v>12</v>
@@ -9830,7 +10310,7 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H294" t="s">
         <v>12</v>
@@ -9838,7 +10318,7 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H295" t="s">
         <v>12</v>
@@ -9846,7 +10326,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H296" t="s">
         <v>12</v>
@@ -9854,7 +10334,7 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H297" t="s">
         <v>12</v>
@@ -9862,7 +10342,7 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H298" t="s">
         <v>12</v>
@@ -9870,7 +10350,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H299" t="s">
         <v>12</v>
@@ -9878,7 +10358,7 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H300" t="s">
         <v>12</v>
@@ -9886,7 +10366,7 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H301" t="s">
         <v>12</v>
@@ -9894,7 +10374,7 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H302" t="s">
         <v>12</v>
@@ -9902,7 +10382,7 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H303" t="s">
         <v>12</v>
@@ -9910,7 +10390,7 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H304" t="s">
         <v>12</v>
@@ -9918,7 +10398,7 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H305" t="s">
         <v>12</v>
@@ -9926,7 +10406,7 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H306" t="s">
         <v>12</v>
@@ -9934,7 +10414,7 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H307" t="s">
         <v>12</v>
@@ -9942,7 +10422,7 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H308" t="s">
         <v>12</v>
@@ -9950,7 +10430,7 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H309" t="s">
         <v>12</v>
@@ -9958,7 +10438,7 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H310" t="s">
         <v>12</v>
@@ -9966,7 +10446,7 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H311" t="s">
         <v>12</v>
@@ -9974,7 +10454,7 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H312" t="s">
         <v>12</v>
@@ -9982,7 +10462,7 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H313" t="s">
         <v>12</v>
@@ -9990,7 +10470,7 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H314" t="s">
         <v>12</v>
@@ -9998,7 +10478,7 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H315" t="s">
         <v>12</v>
@@ -10006,7 +10486,7 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H316" t="s">
         <v>12</v>
@@ -10014,7 +10494,7 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H317" t="s">
         <v>12</v>
@@ -10022,7 +10502,7 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H318" t="s">
         <v>12</v>
@@ -10030,7 +10510,7 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H319" t="s">
         <v>12</v>
@@ -10038,7 +10518,7 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H320" t="s">
         <v>12</v>
@@ -10046,7 +10526,7 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H321" t="s">
         <v>12</v>
@@ -10054,7 +10534,7 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H322" t="s">
         <v>12</v>
@@ -10062,7 +10542,7 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H323" t="s">
         <v>12</v>
@@ -10070,7 +10550,7 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H324" t="s">
         <v>12</v>
@@ -10078,7 +10558,7 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H325" t="s">
         <v>12</v>
@@ -10086,7 +10566,7 @@
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H326" t="s">
         <v>12</v>
@@ -10094,7 +10574,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H327" t="s">
         <v>12</v>
@@ -10102,7 +10582,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H328" t="s">
         <v>12</v>
@@ -10110,7 +10590,7 @@
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H329" t="s">
         <v>12</v>
@@ -10118,7 +10598,7 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H330" t="s">
         <v>12</v>
@@ -10126,7 +10606,7 @@
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H331" t="s">
         <v>12</v>
@@ -10134,7 +10614,7 @@
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H332" t="s">
         <v>12</v>
@@ -10142,7 +10622,7 @@
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H333" t="s">
         <v>12</v>
@@ -10150,7 +10630,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H334" t="s">
         <v>12</v>
@@ -10158,7 +10638,7 @@
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H335" t="s">
         <v>12</v>
@@ -10166,7 +10646,7 @@
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H336" t="s">
         <v>12</v>
@@ -10174,7 +10654,7 @@
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H337" t="s">
         <v>12</v>
@@ -10182,7 +10662,7 @@
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H338" t="s">
         <v>12</v>
@@ -10190,7 +10670,7 @@
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H339" t="s">
         <v>12</v>
@@ -10198,7 +10678,7 @@
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H340" t="s">
         <v>12</v>
@@ -10206,7 +10686,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H341" t="s">
         <v>12</v>
@@ -10214,7 +10694,7 @@
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H342" t="s">
         <v>12</v>
@@ -10222,7 +10702,7 @@
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H343" t="s">
         <v>12</v>
@@ -10230,7 +10710,7 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H344" t="s">
         <v>12</v>
@@ -10238,7 +10718,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H345" t="s">
         <v>12</v>
@@ -10246,7 +10726,7 @@
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H346" t="s">
         <v>12</v>
@@ -10254,7 +10734,7 @@
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H347" t="s">
         <v>12</v>
@@ -10262,7 +10742,7 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H348" t="s">
         <v>12</v>
@@ -10270,7 +10750,7 @@
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H349" t="s">
         <v>12</v>
@@ -10278,7 +10758,7 @@
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H350" t="s">
         <v>12</v>
@@ -10286,7 +10766,7 @@
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H351" t="s">
         <v>12</v>
@@ -10294,7 +10774,7 @@
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H352" t="s">
         <v>12</v>
@@ -10302,7 +10782,7 @@
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H353" t="s">
         <v>12</v>
@@ -10310,7 +10790,7 @@
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H354" t="s">
         <v>12</v>
@@ -10318,7 +10798,7 @@
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H355" t="s">
         <v>12</v>
@@ -10326,7 +10806,7 @@
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H356" t="s">
         <v>12</v>
@@ -10334,7 +10814,7 @@
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H357" t="s">
         <v>12</v>
@@ -10342,7 +10822,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H358" t="s">
         <v>12</v>
@@ -10350,7 +10830,7 @@
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H359" t="s">
         <v>12</v>
@@ -10358,7 +10838,7 @@
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H360" t="s">
         <v>12</v>
@@ -10366,7 +10846,7 @@
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H361" t="s">
         <v>12</v>
@@ -10374,7 +10854,7 @@
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H362" t="s">
         <v>12</v>
@@ -10382,7 +10862,7 @@
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H363" t="s">
         <v>12</v>
@@ -10390,7 +10870,7 @@
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H364" t="s">
         <v>12</v>
@@ -10398,7 +10878,7 @@
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H365" t="s">
         <v>12</v>
@@ -10406,7 +10886,7 @@
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H366" t="s">
         <v>12</v>
@@ -10414,7 +10894,7 @@
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H367" t="s">
         <v>12</v>
@@ -10422,7 +10902,7 @@
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H368" t="s">
         <v>12</v>
@@ -10430,7 +10910,7 @@
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H369" t="s">
         <v>12</v>
@@ -10438,7 +10918,7 @@
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H370" t="s">
         <v>12</v>
@@ -10446,7 +10926,7 @@
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H371" t="s">
         <v>12</v>
@@ -10454,7 +10934,7 @@
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H372" t="s">
         <v>12</v>
@@ -10462,7 +10942,7 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H373" t="s">
         <v>12</v>
@@ -10470,7 +10950,7 @@
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H374" t="s">
         <v>12</v>
@@ -10478,7 +10958,7 @@
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H375" t="s">
         <v>12</v>
@@ -10486,7 +10966,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H376" t="s">
         <v>12</v>
@@ -10494,7 +10974,7 @@
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H377" t="s">
         <v>12</v>
@@ -10502,7 +10982,7 @@
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H378" t="s">
         <v>12</v>
@@ -10510,7 +10990,7 @@
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H379" t="s">
         <v>12</v>
@@ -10518,7 +10998,7 @@
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H380" t="s">
         <v>12</v>
@@ -10526,7 +11006,7 @@
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H381" t="s">
         <v>12</v>
@@ -10534,7 +11014,7 @@
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H382" t="s">
         <v>12</v>
@@ -10542,7 +11022,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H383" t="s">
         <v>12</v>
@@ -10550,7 +11030,7 @@
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H384" t="s">
         <v>12</v>
@@ -10558,7 +11038,7 @@
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H385" t="s">
         <v>12</v>
@@ -10566,7 +11046,7 @@
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H386" t="s">
         <v>12</v>
@@ -10574,7 +11054,7 @@
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H387" t="s">
         <v>12</v>
@@ -10582,7 +11062,7 @@
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H388" t="s">
         <v>12</v>
@@ -10590,7 +11070,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H389" t="s">
         <v>12</v>
@@ -10598,7 +11078,7 @@
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H390" t="s">
         <v>12</v>
@@ -10606,7 +11086,7 @@
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H391" t="s">
         <v>12</v>
@@ -10614,7 +11094,7 @@
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H392" t="s">
         <v>12</v>
@@ -10622,7 +11102,7 @@
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H393" t="s">
         <v>12</v>
@@ -10630,7 +11110,7 @@
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H394" t="s">
         <v>12</v>
@@ -10638,7 +11118,7 @@
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H395" t="s">
         <v>12</v>
@@ -10646,7 +11126,7 @@
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H396" t="s">
         <v>12</v>
@@ -10654,7 +11134,7 @@
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H397" t="s">
         <v>12</v>
@@ -10662,7 +11142,7 @@
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H398" t="s">
         <v>12</v>
@@ -10670,7 +11150,7 @@
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H399" t="s">
         <v>12</v>
@@ -10678,7 +11158,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H400" t="s">
         <v>12</v>
@@ -10686,7 +11166,7 @@
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H401" t="s">
         <v>12</v>
@@ -10694,7 +11174,7 @@
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H402" t="s">
         <v>12</v>
@@ -10702,7 +11182,7 @@
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H403" t="s">
         <v>12</v>
@@ -10710,7 +11190,7 @@
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H404" t="s">
         <v>12</v>
@@ -10718,7 +11198,7 @@
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H405" t="s">
         <v>12</v>
@@ -10726,7 +11206,7 @@
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H406" t="s">
         <v>12</v>
@@ -10734,7 +11214,7 @@
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H407" t="s">
         <v>12</v>
@@ -10742,7 +11222,7 @@
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H408" t="s">
         <v>12</v>
@@ -10750,7 +11230,7 @@
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H409" t="s">
         <v>12</v>
@@ -10758,7 +11238,7 @@
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H410" t="s">
         <v>12</v>
@@ -10766,7 +11246,7 @@
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H411" t="s">
         <v>12</v>
@@ -10774,7 +11254,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H412" t="s">
         <v>12</v>
@@ -10782,7 +11262,7 @@
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H413" t="s">
         <v>12</v>
@@ -10790,7 +11270,7 @@
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H414" t="s">
         <v>12</v>
@@ -10798,7 +11278,7 @@
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H415" t="s">
         <v>12</v>
@@ -10806,7 +11286,7 @@
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H416" t="s">
         <v>12</v>
@@ -10814,7 +11294,7 @@
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H417" t="s">
         <v>12</v>
@@ -10822,7 +11302,7 @@
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H418" t="s">
         <v>12</v>
@@ -10830,7 +11310,7 @@
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H419" t="s">
         <v>12</v>
@@ -10838,7 +11318,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H420" t="s">
         <v>12</v>
@@ -10846,7 +11326,7 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H421" t="s">
         <v>12</v>
@@ -10854,7 +11334,7 @@
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H422" t="s">
         <v>12</v>
@@ -10862,7 +11342,7 @@
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H423" t="s">
         <v>12</v>
@@ -10870,7 +11350,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H424" t="s">
         <v>12</v>
@@ -10878,7 +11358,7 @@
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H425" t="s">
         <v>12</v>
@@ -10886,7 +11366,7 @@
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H426" t="s">
         <v>12</v>
@@ -10894,7 +11374,7 @@
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H427" t="s">
         <v>12</v>
@@ -10902,7 +11382,7 @@
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H428" t="s">
         <v>12</v>
@@ -10910,7 +11390,7 @@
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H429" t="s">
         <v>12</v>
@@ -10918,7 +11398,7 @@
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H430" t="s">
         <v>12</v>
@@ -10926,7 +11406,7 @@
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H431" t="s">
         <v>12</v>
@@ -10934,7 +11414,7 @@
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H432" t="s">
         <v>12</v>
@@ -10942,7 +11422,7 @@
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H433" t="s">
         <v>12</v>
@@ -10950,7 +11430,7 @@
     </row>
     <row r="434" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H434" t="s">
         <v>12</v>
@@ -10958,7 +11438,7 @@
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H435" t="s">
         <v>12</v>
@@ -10966,7 +11446,7 @@
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H436" t="s">
         <v>12</v>
@@ -10974,7 +11454,7 @@
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H437" t="s">
         <v>12</v>
@@ -10982,7 +11462,7 @@
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H438" t="s">
         <v>12</v>
@@ -10990,7 +11470,7 @@
     </row>
     <row r="439" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H439" t="s">
         <v>12</v>
@@ -10998,7 +11478,7 @@
     </row>
     <row r="440" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H440" t="s">
         <v>12</v>
@@ -11006,7 +11486,7 @@
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H441" t="s">
         <v>12</v>
@@ -11014,7 +11494,7 @@
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H442" t="s">
         <v>12</v>
@@ -11022,7 +11502,7 @@
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H443" t="s">
         <v>12</v>
@@ -11030,7 +11510,7 @@
     </row>
     <row r="444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H444" t="s">
         <v>12</v>
@@ -11038,7 +11518,7 @@
     </row>
     <row r="445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H445" t="s">
         <v>12</v>
@@ -11046,7 +11526,7 @@
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H446" t="s">
         <v>12</v>
@@ -11054,7 +11534,7 @@
     </row>
     <row r="447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H447" t="s">
         <v>12</v>
@@ -11062,7 +11542,7 @@
     </row>
     <row r="448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H448" t="s">
         <v>12</v>
@@ -11070,7 +11550,7 @@
     </row>
     <row r="449" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H449" t="s">
         <v>12</v>
@@ -11078,7 +11558,7 @@
     </row>
     <row r="450" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H450" t="s">
         <v>12</v>
@@ -11086,7 +11566,7 @@
     </row>
     <row r="451" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H451" t="s">
         <v>12</v>
@@ -11094,7 +11574,7 @@
     </row>
     <row r="452" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H452" t="s">
         <v>12</v>
@@ -11102,7 +11582,7 @@
     </row>
     <row r="453" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H453" t="s">
         <v>12</v>
@@ -11110,7 +11590,7 @@
     </row>
     <row r="454" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H454" t="s">
         <v>12</v>
@@ -11118,7 +11598,7 @@
     </row>
     <row r="455" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H455" t="s">
         <v>12</v>
@@ -11126,7 +11606,7 @@
     </row>
     <row r="456" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H456" t="s">
         <v>12</v>
@@ -11134,7 +11614,7 @@
     </row>
     <row r="457" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H457" t="s">
         <v>12</v>
@@ -11142,7 +11622,7 @@
     </row>
     <row r="458" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H458" t="s">
         <v>12</v>
@@ -11150,7 +11630,7 @@
     </row>
     <row r="459" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H459" t="s">
         <v>12</v>
@@ -11158,7 +11638,7 @@
     </row>
     <row r="460" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H460" t="s">
         <v>12</v>
@@ -11166,7 +11646,7 @@
     </row>
     <row r="461" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H461" t="s">
         <v>12</v>
@@ -11174,7 +11654,7 @@
     </row>
     <row r="462" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H462" t="s">
         <v>12</v>
@@ -11182,7 +11662,7 @@
     </row>
     <row r="463" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H463" t="s">
         <v>12</v>
@@ -11190,7 +11670,7 @@
     </row>
     <row r="464" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H464" t="s">
         <v>12</v>
@@ -11198,7 +11678,7 @@
     </row>
     <row r="465" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H465" t="s">
         <v>12</v>
@@ -11206,7 +11686,7 @@
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H466" t="s">
         <v>12</v>
@@ -11214,7 +11694,7 @@
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H467" t="s">
         <v>12</v>
@@ -11222,7 +11702,7 @@
     </row>
     <row r="468" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H468" t="s">
         <v>12</v>
@@ -11230,7 +11710,7 @@
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H469" t="s">
         <v>12</v>
@@ -11238,7 +11718,7 @@
     </row>
     <row r="470" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H470" t="s">
         <v>12</v>
@@ -11246,7 +11726,7 @@
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H471" t="s">
         <v>12</v>
@@ -11254,7 +11734,7 @@
     </row>
     <row r="472" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H472" t="s">
         <v>12</v>
@@ -11262,7 +11742,7 @@
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H473" t="s">
         <v>12</v>
@@ -11270,7 +11750,7 @@
     </row>
     <row r="474" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H474" t="s">
         <v>12</v>
@@ -11278,7 +11758,7 @@
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H475" t="s">
         <v>12</v>
@@ -11286,7 +11766,7 @@
     </row>
     <row r="476" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H476" t="s">
         <v>12</v>
@@ -11294,7 +11774,7 @@
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H477" t="s">
         <v>12</v>
@@ -11302,7 +11782,7 @@
     </row>
     <row r="478" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H478" t="s">
         <v>12</v>
@@ -11310,7 +11790,7 @@
     </row>
     <row r="479" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H479" t="s">
         <v>12</v>
@@ -11318,7 +11798,7 @@
     </row>
     <row r="480" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H480" t="s">
         <v>12</v>
@@ -11326,7 +11806,7 @@
     </row>
     <row r="481" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H481" t="s">
         <v>12</v>
@@ -11334,7 +11814,7 @@
     </row>
     <row r="482" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H482" t="s">
         <v>12</v>
@@ -11342,7 +11822,7 @@
     </row>
     <row r="483" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H483" t="s">
         <v>12</v>
@@ -11350,7 +11830,7 @@
     </row>
     <row r="484" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H484" t="s">
         <v>12</v>
@@ -11358,7 +11838,7 @@
     </row>
     <row r="485" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H485" t="s">
         <v>12</v>
@@ -11366,7 +11846,7 @@
     </row>
     <row r="486" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H486" t="s">
         <v>12</v>
@@ -11374,7 +11854,7 @@
     </row>
     <row r="487" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H487" t="s">
         <v>12</v>
@@ -11382,7 +11862,7 @@
     </row>
     <row r="488" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H488" t="s">
         <v>12</v>
@@ -11390,7 +11870,7 @@
     </row>
     <row r="489" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H489" t="s">
         <v>12</v>
@@ -11398,7 +11878,7 @@
     </row>
     <row r="490" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H490" t="s">
         <v>12</v>
@@ -11406,7 +11886,7 @@
     </row>
     <row r="491" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H491" t="s">
         <v>12</v>
@@ -11414,7 +11894,7 @@
     </row>
     <row r="492" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H492" t="s">
         <v>12</v>
@@ -11422,7 +11902,7 @@
     </row>
     <row r="493" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H493" t="s">
         <v>12</v>
@@ -11430,7 +11910,7 @@
     </row>
     <row r="494" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H494" t="s">
         <v>12</v>
@@ -11438,7 +11918,7 @@
     </row>
     <row r="495" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H495" t="s">
         <v>12</v>
@@ -11446,7 +11926,7 @@
     </row>
     <row r="496" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H496" t="s">
         <v>12</v>
@@ -11454,7 +11934,7 @@
     </row>
     <row r="497" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H497" t="s">
         <v>12</v>
@@ -11462,7 +11942,7 @@
     </row>
     <row r="498" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H498" t="s">
         <v>12</v>
@@ -11470,7 +11950,7 @@
     </row>
     <row r="499" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H499" t="s">
         <v>12</v>
@@ -11478,7 +11958,7 @@
     </row>
     <row r="500" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H500" t="s">
         <v>12</v>
@@ -11486,7 +11966,7 @@
     </row>
     <row r="501" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H501" t="s">
         <v>12</v>
@@ -11494,7 +11974,7 @@
     </row>
     <row r="502" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H502" t="s">
         <v>12</v>
@@ -11502,7 +11982,7 @@
     </row>
     <row r="503" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H503" t="s">
         <v>12</v>
@@ -11510,7 +11990,7 @@
     </row>
     <row r="504" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H504" t="s">
         <v>12</v>
@@ -11518,7 +11998,7 @@
     </row>
     <row r="505" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H505" t="s">
         <v>12</v>
@@ -11526,7 +12006,7 @@
     </row>
     <row r="506" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H506" t="s">
         <v>12</v>
@@ -11534,7 +12014,7 @@
     </row>
     <row r="507" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H507" t="s">
         <v>12</v>
@@ -11542,7 +12022,7 @@
     </row>
     <row r="508" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H508" t="s">
         <v>12</v>
@@ -11550,7 +12030,7 @@
     </row>
     <row r="509" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H509" t="s">
         <v>12</v>
@@ -11558,7 +12038,7 @@
     </row>
     <row r="510" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H510" t="s">
         <v>12</v>
@@ -11566,7 +12046,7 @@
     </row>
     <row r="511" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H511" t="s">
         <v>12</v>
@@ -11574,7 +12054,7 @@
     </row>
     <row r="512" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H512" t="s">
         <v>12</v>
@@ -11582,7 +12062,7 @@
     </row>
     <row r="513" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H513" t="s">
         <v>12</v>
@@ -11590,7 +12070,7 @@
     </row>
     <row r="514" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H514" t="s">
         <v>12</v>
@@ -11598,7 +12078,7 @@
     </row>
     <row r="515" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H515" t="s">
         <v>12</v>
@@ -11606,7 +12086,7 @@
     </row>
     <row r="516" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H516" t="s">
         <v>12</v>
@@ -11614,7 +12094,7 @@
     </row>
     <row r="517" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H517" t="s">
         <v>12</v>
@@ -11622,7 +12102,7 @@
     </row>
     <row r="518" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H518" t="s">
         <v>12</v>
@@ -11630,7 +12110,7 @@
     </row>
     <row r="519" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H519" t="s">
         <v>12</v>
@@ -11638,7 +12118,7 @@
     </row>
     <row r="520" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H520" t="s">
         <v>12</v>
@@ -11646,7 +12126,7 @@
     </row>
     <row r="521" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H521" t="s">
         <v>12</v>
@@ -11654,7 +12134,7 @@
     </row>
     <row r="522" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H522" t="s">
         <v>12</v>
@@ -11662,7 +12142,7 @@
     </row>
     <row r="523" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H523" t="s">
         <v>12</v>
@@ -11670,7 +12150,7 @@
     </row>
     <row r="524" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H524" t="s">
         <v>12</v>
@@ -11678,7 +12158,7 @@
     </row>
     <row r="525" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H525" t="s">
         <v>12</v>
@@ -11686,7 +12166,7 @@
     </row>
     <row r="526" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H526" t="s">
         <v>12</v>
@@ -11694,7 +12174,7 @@
     </row>
     <row r="527" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H527" t="s">
         <v>12</v>
@@ -11702,7 +12182,7 @@
     </row>
     <row r="528" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H528" t="s">
         <v>12</v>
@@ -11710,7 +12190,7 @@
     </row>
     <row r="529" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H529" t="s">
         <v>12</v>
@@ -11718,7 +12198,7 @@
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H530" t="s">
         <v>12</v>
@@ -11726,7 +12206,7 @@
     </row>
     <row r="531" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H531" t="s">
         <v>12</v>
@@ -11734,7 +12214,7 @@
     </row>
     <row r="532" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H532" t="s">
         <v>12</v>
@@ -11742,7 +12222,7 @@
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H533" t="s">
         <v>12</v>
@@ -11750,7 +12230,7 @@
     </row>
     <row r="534" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H534" t="s">
         <v>12</v>
@@ -11758,7 +12238,7 @@
     </row>
     <row r="535" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H535" t="s">
         <v>12</v>
@@ -11766,7 +12246,7 @@
     </row>
     <row r="536" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H536" t="s">
         <v>12</v>
@@ -11774,7 +12254,7 @@
     </row>
     <row r="537" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H537" t="s">
         <v>12</v>
@@ -11782,7 +12262,7 @@
     </row>
     <row r="538" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H538" t="s">
         <v>12</v>
@@ -11790,7 +12270,7 @@
     </row>
     <row r="539" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H539" t="s">
         <v>12</v>
@@ -11798,7 +12278,7 @@
     </row>
     <row r="540" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H540" t="s">
         <v>12</v>
@@ -11806,7 +12286,7 @@
     </row>
     <row r="541" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H541" t="s">
         <v>12</v>
@@ -11814,7 +12294,7 @@
     </row>
     <row r="542" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H542" t="s">
         <v>12</v>
@@ -11822,7 +12302,7 @@
     </row>
     <row r="543" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H543" t="s">
         <v>12</v>
@@ -11830,7 +12310,7 @@
     </row>
     <row r="544" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H544" t="s">
         <v>12</v>
@@ -11838,7 +12318,7 @@
     </row>
     <row r="545" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B545" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H545" t="s">
         <v>12</v>
@@ -11846,7 +12326,7 @@
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H546" t="s">
         <v>12</v>
@@ -11854,7 +12334,7 @@
     </row>
     <row r="547" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H547" t="s">
         <v>12</v>
@@ -11862,7 +12342,7 @@
     </row>
     <row r="548" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H548" t="s">
         <v>12</v>
@@ -11870,7 +12350,7 @@
     </row>
     <row r="549" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H549" t="s">
         <v>12</v>
@@ -11878,7 +12358,7 @@
     </row>
     <row r="550" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H550" t="s">
         <v>12</v>
@@ -11886,7 +12366,7 @@
     </row>
     <row r="551" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H551" t="s">
         <v>12</v>
@@ -11894,7 +12374,7 @@
     </row>
     <row r="552" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H552" t="s">
         <v>12</v>
@@ -11902,16 +12382,48 @@
     </row>
     <row r="553" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="H553" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="554" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>548</v>
+        <v>544</v>
+      </c>
+      <c r="H554" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
+        <v>545</v>
+      </c>
+      <c r="H555" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B556" t="s">
+        <v>546</v>
+      </c>
+      <c r="H556" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="558" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="559" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
         <v>549</v>
       </c>
     </row>
